--- a/public/plugin/xls/Surat Keterangan Domisili.xlsx
+++ b/public/plugin/xls/Surat Keterangan Domisili.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa\public\plugin\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps-desa-dukuh\public\plugin\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEDB124-1955-493A-B5C5-9FAF13DC4367}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9636EC73-A0F9-416F-BC2C-2396368326F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$36</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -78,19 +78,19 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>DESA CIMANGGU I</t>
-  </si>
-  <si>
-    <t>Jl. Gardu Seri Ciaruteun Rt.004 Rw.008 Desa Cimanggu Satu Kecamatan Cibungbulang 16630 Bogor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Yang bertanda tangan dibawah ini Kepala Desa Cimanggu Satu Kecamatan Cibungbulang Kabupaten Bogor menerangkan dengan sebenarnya bahwa :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cimanggu, </t>
-  </si>
-  <si>
     <t>No :</t>
+  </si>
+  <si>
+    <t>DESA DUKUH</t>
+  </si>
+  <si>
+    <t>Jl Raya Galuga - Cijujung Km.2 Kec Cibungbulang Kab. Bogor Pos 16330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dukuh, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Yang bertanda tangan dibawah ini Kepala Desa Dukuh Kecamatan Cibungbulang Kabupaten Bogor menerangkan dengan sebenarnya bahwa :</t>
   </si>
 </sst>
 </file>
@@ -148,9 +148,7 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="8"/>
-      <color theme="1"/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -190,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -204,44 +202,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -319,9 +314,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -359,7 +354,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -465,7 +460,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -607,7 +602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C28E0B9-CBCF-4415-8AE6-496673EECDF9}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:G8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -636,73 +631,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="C4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H9" s="3"/>
@@ -711,16 +706,16 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="B11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
@@ -729,10 +724,10 @@
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="5"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
@@ -741,10 +736,10 @@
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="E14" s="5"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
@@ -753,10 +748,10 @@
       <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="E15" s="5"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
@@ -765,10 +760,10 @@
       <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="E16" s="5"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
@@ -777,12 +772,12 @@
       <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
@@ -791,10 +786,10 @@
       <c r="D18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="E18" s="5"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
@@ -803,10 +798,10 @@
       <c r="D19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="E19" s="5"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
@@ -815,67 +810,81 @@
       <c r="D20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="E20" s="5"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-    </row>
-    <row r="27" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G31" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="5"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G32" s="8"/>
@@ -902,37 +911,32 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="7:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
+    <row r="37" spans="7:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="G35:I35"/>
     <mergeCell ref="G36:I36"/>
     <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G31:I31"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="H30:I30"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="A7:I7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B22:I22"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.62992125984251968" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
